--- a/users_data/794329884_order.xlsx
+++ b/users_data/794329884_order.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\users_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29006B5-5D43-4E5D-8C47-A8DA4844407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92B629F-E98E-45E1-9383-F83B7A93C5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="4270" yWindow="3340" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -416,18 +414,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -441,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>63267675</v>
       </c>
@@ -449,13 +447,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>63267673</v>
       </c>
@@ -463,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>53597951</v>
       </c>
@@ -477,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>4</v>

--- a/users_data/794329884_order.xlsx
+++ b/users_data/794329884_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\users_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB79A373-B3E6-4E7E-A498-535424ECB7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD5E67-9E09-4347-BF78-AD036548E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Серьги для девочек</t>
   </si>
@@ -56,13 +56,22 @@
   </si>
   <si>
     <t>г. Москва, м Семёновская, Измайловское шоссе, д. 6</t>
+  </si>
+  <si>
+    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 5</t>
+  </si>
+  <si>
+    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 4</t>
+  </si>
+  <si>
+    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +84,6 @@
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
@@ -111,13 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5D944-6DD4-458D-AE01-0CEC5CCC11F0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -468,17 +469,17 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44398622</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -488,11 +489,21 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/users_data/794329884_order.xlsx
+++ b/users_data/794329884_order.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\users_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD5E67-9E09-4347-BF78-AD036548E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15A0A3-A353-43A6-AF71-B938BF0E0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Серьги для девочек</t>
   </si>
@@ -56,22 +56,13 @@
   </si>
   <si>
     <t>г. Москва, м Семёновская, Измайловское шоссе, д. 6</t>
-  </si>
-  <si>
-    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 5</t>
-  </si>
-  <si>
-    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 4</t>
-  </si>
-  <si>
-    <t>г. Москва, м Семёновская, Измайловское шоссе, д. 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +75,13 @@
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
@@ -113,12 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5D944-6DD4-458D-AE01-0CEC5CCC11F0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -469,17 +468,17 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44398622</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -489,21 +488,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
